--- a/coverity_scan.xlsx
+++ b/coverity_scan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">function</t>
   </si>
@@ -38,12 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">source_code.cpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">displayValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uninitialized variable</t>
   </si>
 </sst>
 </file>
@@ -134,12 +128,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -338,47 +336,39 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/coverity_scan.xlsx
+++ b/coverity_scan.xlsx
@@ -31,13 +31,13 @@
     <t xml:space="preserve">filename</t>
   </si>
   <si>
-    <t xml:space="preserve">processInput</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uninitialized variable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">source_code.cpp</t>
+    <t xml:space="preserve">_dsGetEDIDBytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of bounds access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsDisplay.c</t>
   </si>
 </sst>
 </file>
@@ -336,13 +336,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/coverity_scan.xlsx
+++ b/coverity_scan.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Out of bounds access</t>
   </si>
   <si>
-    <t xml:space="preserve">dsDisplay.c</t>
+    <t xml:space="preserve">blob/main/generic/rpc/srv/dsDisplay.c</t>
   </si>
 </sst>
 </file>
@@ -333,17 +333,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,9 +367,6 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/coverity_scan.xlsx
+++ b/coverity_scan.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Out of bounds access</t>
   </si>
   <si>
-    <t xml:space="preserve">blob/main/generic/rpc/srv/dsDisplay.c</t>
+    <t xml:space="preserve">generic/rpc/srv/dsDisplay.c</t>
   </si>
 </sst>
 </file>
@@ -336,7 +336,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/coverity_scan.xlsx
+++ b/coverity_scan.xlsx
@@ -31,13 +31,13 @@
     <t xml:space="preserve">filename</t>
   </si>
   <si>
-    <t xml:space="preserve">_dsGetEDIDBytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out of bounds access</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generic/rpc/srv/dsDisplay.c</t>
+    <t xml:space="preserve">dsFPDMgr_init</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPY_INSTEAD_OF_MOVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generic/rpc/srv/dsFPD.c</t>
   </si>
 </sst>
 </file>

--- a/coverity_scan.xlsx
+++ b/coverity_scan.xlsx
@@ -31,13 +31,13 @@
     <t xml:space="preserve">filename</t>
   </si>
   <si>
-    <t xml:space="preserve">dsFPDMgr_init</t>
+    <t xml:space="preserve">persistResolution</t>
   </si>
   <si>
     <t xml:space="preserve">COPY_INSTEAD_OF_MOVE</t>
   </si>
   <si>
-    <t xml:space="preserve">generic/rpc/srv/dsFPD.c</t>
+    <t xml:space="preserve">generic/rpc/srv/dsVideoPort.c</t>
   </si>
 </sst>
 </file>
@@ -336,7 +336,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/coverity_scan.xlsx
+++ b/coverity_scan.xlsx
@@ -31,13 +31,13 @@
     <t xml:space="preserve">filename</t>
   </si>
   <si>
-    <t xml:space="preserve">persistResolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPY_INSTEAD_OF_MOVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generic/rpc/srv/dsVideoPort.c</t>
+    <t xml:space="preserve">main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncaught exception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generic/sample/getVideoOutputPorts.cpp</t>
   </si>
 </sst>
 </file>
@@ -336,7 +336,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
